--- a/data/long_razon/P24_3-Edad-long_razon.xlsx
+++ b/data/long_razon/P24_3-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-50,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>68,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-59,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>39,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-37,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-13,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>53,58%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-63,73; 386,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-87,81; 89,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-37,47; 466,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-84,1; -7,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-53,01; 285,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-49,14; 317,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-70,06; 20,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-57,12; 96,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 195,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>296,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-14,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-61,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-52,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-56,8%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,68; 1080,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-63,92; 95,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-87,42; 10,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,48; 169,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,16; 253,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-78,68; -5,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,07; 283,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-42,9; 78,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-76,65; -21,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>45,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-51,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-9,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-37,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-34,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-23,61%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-36,25; 297,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-79,75; -2,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-49,27; 79,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-49,69; 65,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-50,53; 76,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-64,91; 11,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-27,36; 126,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-62,14; 1,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-50,1; 16,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>41,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>59,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>49,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-2,67%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,2; 104,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,83; 176,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-47,18; 35,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,77; 37,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 186,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,51; 70,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,24; 45,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,04; 122,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-29,48; 38,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>83,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>76,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>149,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>58,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>117,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>37,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 323,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 251,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-30,64; 74,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,76; 516,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-48,35; 111,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 171,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,62; 289,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 137,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 79,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>46,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-22,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>113,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>47,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>85,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-26,26; 179,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,93; 197,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,39; 32,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,87; 275,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,03; 108,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 133,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,94; 189,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,13; 91,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-24,25; 66,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>59,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>37,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,91%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,52; 139,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-28,76; 34,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-32,7; 12,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 57,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 58,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 37,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,53; 71,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 31,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 16,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
